--- a/dactyl-manuform-5x6.xlsx
+++ b/dactyl-manuform-5x6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/d1/projects/keyboards/vial-layouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE47EE79-682F-E247-9E7A-CCC0F14CC395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3ACE95-5F79-8845-838E-E44F091FC4BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="1160" windowWidth="28040" windowHeight="25360" xr2:uid="{20654BB4-9255-664C-8DC4-2BAABD4FE930}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="112">
   <si>
     <t>Q</t>
   </si>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2033,7 +2033,9 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="14"/>
+      <c r="N23" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
